--- a/Beginning Zdetl/Timeline.xlsx
+++ b/Beginning Zdetl/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\Beginning Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFAD3522-7D03-4B8F-BBF1-D3B096CE5E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE16D9C-AEAC-4477-B8FF-3C707E30CDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19740" yWindow="1020" windowWidth="18180" windowHeight="10260" xr2:uid="{3E00AD2A-3B54-469E-8C75-56AC4C36327B}"/>
+    <workbookView xWindow="-21735" yWindow="-135" windowWidth="21870" windowHeight="13050" xr2:uid="{3E00AD2A-3B54-469E-8C75-56AC4C36327B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>Standard Year</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>First Teqozdievl.</t>
-  </si>
-  <si>
-    <t>Space travel.</t>
-  </si>
-  <si>
-    <t>First sublight interstellar expeditions.</t>
   </si>
   <si>
     <t>Consulate established</t>
@@ -407,19 +401,141 @@
   <si>
     <t>Standard days</t>
   </si>
+  <si>
+    <t>1 Zhdanstial = 27.02 standard hours</t>
+  </si>
+  <si>
+    <t>Fevranzhtavr appears in the historical record.</t>
+  </si>
+  <si>
+    <t>Space exploration begins anew.</t>
+  </si>
+  <si>
+    <t>First planetary missions</t>
+  </si>
+  <si>
+    <t>Planetary colonies established</t>
+  </si>
+  <si>
+    <t>Zdetl standardized</t>
+  </si>
+  <si>
+    <t>First sublight interstellar flights</t>
+  </si>
+  <si>
+    <t>Jump drive (QEV) discovered</t>
+  </si>
+  <si>
+    <t>Contact with Addaxur</t>
+  </si>
+  <si>
+    <t>Outward expansion into surrounding sectors</t>
+  </si>
+  <si>
+    <t>Zhodani Consulate adopts policy of absorbing minor human cultures in adjacent sectors.</t>
+  </si>
+  <si>
+    <t>Discovery of the Toliak</t>
+  </si>
+  <si>
+    <t>Starmap projector's effectiveness confirmed.</t>
+  </si>
+  <si>
+    <t>First core expedition begins.</t>
+  </si>
+  <si>
+    <t>First contact with the Vargr</t>
+  </si>
+  <si>
+    <t>First contact with Vilani traders</t>
+  </si>
+  <si>
+    <t>Consulate reaches TL-12</t>
+  </si>
+  <si>
+    <t>Consulate reaches present size</t>
+  </si>
+  <si>
+    <t>Zhodani trade contacts with Sword Worlds</t>
+  </si>
+  <si>
+    <t>Zhodani trade contacts with Darrians</t>
+  </si>
+  <si>
+    <t>Foundation of Third Imperium</t>
+  </si>
+  <si>
+    <t>First contact with Imperial traders in the Spinward Marches</t>
+  </si>
+  <si>
+    <t>Imperial colonization of Tloql sector begins</t>
+  </si>
+  <si>
+    <t>Imperial expansion in Tloql sector begins pushing out Zhodani settlements</t>
+  </si>
+  <si>
+    <t>First contact with the Aslan</t>
+  </si>
+  <si>
+    <t>Imperial explorations into Zhodani territory. Consulate reaches TL-13.</t>
+  </si>
+  <si>
+    <t>Formal establishment of the Tozjabr.</t>
+  </si>
+  <si>
+    <t>First Frontier War begins</t>
+  </si>
+  <si>
+    <t>First Frontier War ends</t>
+  </si>
+  <si>
+    <t>Second Frontier War begins</t>
+  </si>
+  <si>
+    <t>Second Frontier War ends</t>
+  </si>
+  <si>
+    <t>Seventh Core Expedition sets out</t>
+  </si>
+  <si>
+    <t>First symptoms of Fienzhatshtiavl discovered</t>
+  </si>
+  <si>
+    <t>Psionic Suppressions in the Imperium</t>
+  </si>
+  <si>
+    <t>Psionic Suppressions in the Imperium completed</t>
+  </si>
+  <si>
+    <t>Third Frontier War begins</t>
+  </si>
+  <si>
+    <t>Third Frontier War ends</t>
+  </si>
+  <si>
+    <t>Tozjabr sieze the Vermillion Stance in Steblenzh sector</t>
+  </si>
+  <si>
+    <t>Fourth Frontier War begins</t>
+  </si>
+  <si>
+    <t>Fourth Frontier War ends</t>
+  </si>
+  <si>
+    <t>Planning for eighth Core Expedition begins</t>
+  </si>
+  <si>
+    <t>"Present Day"</t>
+  </si>
+  <si>
+    <t>Scheduled departure of Eighth Core Expedition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +566,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -471,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -481,18 +614,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9417E71-1319-4457-93D4-79ED6AEE9D26}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -846,62 +983,62 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>365</v>
       </c>
       <c r="D2">
-        <f>244*29.02/24</f>
-        <v>295.03666666666669</v>
+        <f>244*27.02/24</f>
+        <v>274.70333333333332</v>
       </c>
       <c r="F2" s="2">
         <v>-302000</v>
       </c>
       <c r="G2" s="3">
-        <f>(F2-$F$40)/$D$3</f>
-        <v>-365287.42755137774</v>
+        <f t="shared" ref="G2:G39" si="0">(F2-$F$40)/$D$3</f>
+        <v>-392316.42620523961</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <f>D2/B2</f>
-        <v>0.80831963470319645</v>
+        <v>0.75261187214611869</v>
       </c>
       <c r="F3" s="2">
         <v>-300000</v>
       </c>
       <c r="G3" s="3">
-        <f>(F3-$F$40)/$D$3</f>
-        <v>-362813.15881641826</v>
+        <f t="shared" si="0"/>
+        <v>-389659.01396658213</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <f>B2/D2</f>
-        <v>1.2371343674797481</v>
+        <v>1.3287061193287304</v>
       </c>
       <c r="F4" s="2">
         <v>-299700</v>
       </c>
       <c r="G4" s="3">
-        <f>(F4-$F$40)/$D$3</f>
-        <v>-362442.01850617433</v>
+        <f t="shared" si="0"/>
+        <v>-389260.40213078354</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -909,23 +1046,26 @@
         <v>-280000</v>
       </c>
       <c r="G5" s="3">
-        <f>(F5-$F$40)/$D$3</f>
-        <v>-338070.47146682331</v>
+        <f t="shared" si="0"/>
+        <v>-363084.89158000756</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
       <c r="F6" s="2">
         <v>-275000</v>
       </c>
       <c r="G6" s="3">
-        <f>(F6-$F$40)/$D$3</f>
-        <v>-331884.79962942452</v>
+        <f t="shared" si="0"/>
+        <v>-356441.36098336388</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -933,11 +1073,11 @@
         <v>-260000</v>
       </c>
       <c r="G7" s="3">
-        <f>(F7-$F$40)/$D$3</f>
-        <v>-313327.78411722835</v>
+        <f t="shared" si="0"/>
+        <v>-336510.76919343293</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -945,11 +1085,11 @@
         <v>-250000</v>
       </c>
       <c r="G8" s="3">
-        <f>(F8-$F$40)/$D$3</f>
-        <v>-300956.44044243084</v>
+        <f t="shared" si="0"/>
+        <v>-323223.70800014562</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -960,11 +1100,11 @@
         <v>-240000</v>
       </c>
       <c r="G9" s="3">
-        <f>(F9-$F$40)/$D$3</f>
-        <v>-288585.09676763334</v>
+        <f t="shared" si="0"/>
+        <v>-309936.64680685831</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -975,11 +1115,11 @@
         <v>-200000</v>
       </c>
       <c r="G10" s="3">
-        <f>(F10-$F$40)/$D$3</f>
-        <v>-239099.72206844343</v>
+        <f t="shared" si="0"/>
+        <v>-256788.40203370911</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -990,11 +1130,11 @@
         <v>-150000</v>
       </c>
       <c r="G11" s="3">
-        <f>(F11-$F$40)/$D$3</f>
-        <v>-177243.00369445604</v>
+        <f t="shared" si="0"/>
+        <v>-190353.09606727259</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1005,11 +1145,11 @@
         <v>-100000</v>
       </c>
       <c r="G12" s="3">
-        <f>(F12-$F$40)/$D$3</f>
-        <v>-115386.28532046863</v>
+        <f t="shared" si="0"/>
+        <v>-123917.79010083606</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1020,11 +1160,11 @@
         <v>-80000</v>
       </c>
       <c r="G13" s="3">
-        <f>(F13-$F$40)/$D$3</f>
-        <v>-90643.59797087367</v>
+        <f t="shared" si="0"/>
+        <v>-97343.66771426145</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1035,11 +1175,11 @@
         <v>-40000</v>
       </c>
       <c r="G14" s="3">
-        <f>(F14-$F$40)/$D$3</f>
-        <v>-41158.223271683739</v>
+        <f t="shared" si="0"/>
+        <v>-44195.422941112229</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1050,11 +1190,11 @@
         <v>-30000</v>
       </c>
       <c r="G15" s="3">
-        <f>(F15-$F$40)/$D$3</f>
-        <v>-28786.879596886258</v>
+        <f t="shared" si="0"/>
+        <v>-30908.361747824929</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1065,11 +1205,11 @@
         <v>-24000</v>
       </c>
       <c r="G16" s="3">
-        <f>(F16-$F$40)/$D$3</f>
-        <v>-21364.073392007769</v>
+        <f t="shared" si="0"/>
+        <v>-22936.125031852545</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1080,11 +1220,11 @@
         <v>-18000</v>
       </c>
       <c r="G17" s="3">
-        <f>(F17-$F$40)/$D$3</f>
-        <v>-13941.267187129282</v>
+        <f t="shared" si="0"/>
+        <v>-14963.888315880162</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -1095,11 +1235,11 @@
         <v>-17000</v>
       </c>
       <c r="G18" s="3">
-        <f>(F18-$F$40)/$D$3</f>
-        <v>-12704.132819649534</v>
+        <f t="shared" si="0"/>
+        <v>-13635.182196551432</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1110,11 +1250,11 @@
         <v>-15000</v>
       </c>
       <c r="G19" s="3">
-        <f>(F19-$F$40)/$D$3</f>
-        <v>-10229.864084690038</v>
+        <f t="shared" si="0"/>
+        <v>-10977.76995789397</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1125,11 +1265,11 @@
         <v>-13000</v>
       </c>
       <c r="G20" s="3">
-        <f>(F20-$F$40)/$D$3</f>
-        <v>-7755.5953497305409</v>
+        <f t="shared" si="0"/>
+        <v>-8320.3577192365101</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -1140,11 +1280,11 @@
         <v>-9000</v>
       </c>
       <c r="G21" s="3">
-        <f>(F21-$F$40)/$D$3</f>
-        <v>-2807.0578798115484</v>
+        <f t="shared" si="0"/>
+        <v>-3005.5332419215883</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -1155,11 +1295,11 @@
         <v>-8590</v>
       </c>
       <c r="G22" s="3">
-        <f>(F22-$F$40)/$D$3</f>
-        <v>-2299.8327891448516</v>
+        <f t="shared" si="0"/>
+        <v>-2460.7637329968088</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -1170,11 +1310,11 @@
         <v>-8550</v>
       </c>
       <c r="G23" s="3">
-        <f>(F23-$F$40)/$D$3</f>
-        <v>-2250.3474144456618</v>
+        <f t="shared" si="0"/>
+        <v>-2407.6154882236597</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -1185,11 +1325,11 @@
         <v>-8540</v>
       </c>
       <c r="G24" s="3">
-        <f>(F24-$F$40)/$D$3</f>
-        <v>-2237.9760707708642</v>
+        <f t="shared" si="0"/>
+        <v>-2394.328427030372</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -1200,11 +1340,11 @@
         <v>-8530</v>
       </c>
       <c r="G25" s="3">
-        <f>(F25-$F$40)/$D$3</f>
-        <v>-2225.6047270960667</v>
+        <f t="shared" si="0"/>
+        <v>-2381.0413658370849</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -1215,11 +1355,11 @@
         <v>-8500</v>
       </c>
       <c r="G26" s="3">
-        <f>(F26-$F$40)/$D$3</f>
-        <v>-2188.4906960716744</v>
+        <f t="shared" si="0"/>
+        <v>-2341.1801822572229</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -1230,11 +1370,11 @@
         <v>-8300</v>
       </c>
       <c r="G27" s="3">
-        <f>(F27-$F$40)/$D$3</f>
-        <v>-1941.0638225757248</v>
+        <f t="shared" si="0"/>
+        <v>-2075.4389583914772</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -1245,11 +1385,11 @@
         <v>-8200</v>
       </c>
       <c r="G28" s="3">
-        <f>(F28-$F$40)/$D$3</f>
-        <v>-1817.35038582775</v>
+        <f t="shared" si="0"/>
+        <v>-1942.5683464586039</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -1260,11 +1400,11 @@
         <v>-8000</v>
       </c>
       <c r="G29" s="3">
-        <f>(F29-$F$40)/$D$3</f>
-        <v>-1569.9235123318003</v>
+        <f t="shared" si="0"/>
+        <v>-1676.8271225928579</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -1275,11 +1415,11 @@
         <v>-7980</v>
       </c>
       <c r="G30" s="3">
-        <f>(F30-$F$40)/$D$3</f>
-        <v>-1545.1808249822054</v>
+        <f t="shared" si="0"/>
+        <v>-1650.2530002062831</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -1290,11 +1430,11 @@
         <v>-7959</v>
       </c>
       <c r="G31" s="3">
-        <f>(F31-$F$40)/$D$3</f>
-        <v>-1519.2010032651308</v>
+        <f t="shared" si="0"/>
+        <v>-1622.3501717003799</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -1305,11 +1445,11 @@
         <v>-7950</v>
       </c>
       <c r="G32" s="3">
-        <f>(F32-$F$40)/$D$3</f>
-        <v>-1508.0667939578129</v>
+        <f t="shared" si="0"/>
+        <v>-1610.3918166264214</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -1320,11 +1460,11 @@
         <v>-7949</v>
       </c>
       <c r="G33" s="3">
-        <f>(F33-$F$40)/$D$3</f>
-        <v>-1506.8296595903332</v>
+        <f t="shared" si="0"/>
+        <v>-1609.0631105070925</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
@@ -1335,11 +1475,11 @@
         <v>-7948</v>
       </c>
       <c r="G34" s="3">
-        <f>(F34-$F$40)/$D$3</f>
-        <v>-1505.5925252228535</v>
+        <f t="shared" si="0"/>
+        <v>-1607.7344043877638</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
@@ -1349,12 +1489,12 @@
       <c r="F35" s="2">
         <v>-7945</v>
       </c>
-      <c r="G35" s="3">
-        <f>(F35-$F$40)/$D$3</f>
-        <v>-1501.8811221204141</v>
+      <c r="G35" s="11">
+        <f t="shared" si="0"/>
+        <v>-1603.7482860297775</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -1364,9 +1504,9 @@
       <c r="F36" s="2">
         <v>-7940</v>
       </c>
-      <c r="G36" s="3">
-        <f>(F36-$F$40)/$D$3</f>
-        <v>-1495.6954502830154</v>
+      <c r="G36" s="11">
+        <f t="shared" si="0"/>
+        <v>-1597.104755433134</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>4</v>
@@ -1379,27 +1519,27 @@
       <c r="F37" s="2">
         <v>-7920</v>
       </c>
-      <c r="G37" s="3">
-        <f>(F37-$F$40)/$D$3</f>
-        <v>-1470.9527629334204</v>
+      <c r="G37" s="11">
+        <f t="shared" si="0"/>
+        <v>-1570.5306330465594</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>-7959</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="12">
         <v>-7800</v>
       </c>
-      <c r="G38" s="3">
-        <f>(F38-$F$40)/$D$3</f>
-        <v>-1322.4966388358507</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>11</v>
+      <c r="G38" s="13">
+        <f t="shared" si="0"/>
+        <v>-1411.0858987271117</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
@@ -1410,8 +1550,8 @@
         <v>-6800</v>
       </c>
       <c r="G39" s="3">
-        <f>(F39-$F$40)/$D$3</f>
-        <v>-85.362271356102625</v>
+        <f t="shared" si="0"/>
+        <v>-82.379779398381288</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>5</v>
@@ -1422,7 +1562,7 @@
         <v>-7949</v>
       </c>
       <c r="F40" s="2">
-        <v>-6731</v>
+        <v>-6738</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -1436,14 +1576,14 @@
         <v>-7948</v>
       </c>
       <c r="F41" s="2">
-        <v>-6400</v>
+        <v>-6623</v>
       </c>
       <c r="G41" s="3">
-        <f>-($F$40-F41)/$D$3</f>
-        <v>409.49147563579663</v>
+        <f t="shared" ref="G41:G50" si="1">-($F$40-F41)/$D$3</f>
+        <v>152.80120372280399</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -1451,14 +1591,14 @@
         <v>-7945</v>
       </c>
       <c r="F42" s="2">
-        <v>-6000</v>
+        <v>-6400</v>
       </c>
       <c r="G42" s="3">
-        <f>-($F$40-F42)/$D$3</f>
-        <v>904.34522262769588</v>
+        <f t="shared" si="1"/>
+        <v>449.1026683331109</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
@@ -1466,22 +1606,501 @@
         <v>-7940</v>
       </c>
       <c r="F43" s="2">
-        <v>-5823</v>
+        <v>-6300</v>
       </c>
       <c r="G43" s="3">
-        <f>-($F$40-F43)/$D$3</f>
-        <v>1123.3180056716112</v>
+        <f t="shared" si="1"/>
+        <v>581.97328026598393</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>-7920</v>
       </c>
+      <c r="F44" s="2">
+        <v>-6200</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="1"/>
+        <v>714.84389219885702</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F45" s="2">
+        <v>-6059</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="1"/>
+        <v>902.19145502420793</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F46" s="2">
+        <v>-6000</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="1"/>
+        <v>980.58511606460308</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="2">
+        <v>-5823</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="1"/>
+        <v>1215.7660991857883</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="2">
+        <v>-5415</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="1"/>
+        <v>1757.8781958719103</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F49" s="2">
+        <v>-5120</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="1"/>
+        <v>2149.846501073886</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F50" s="2">
+        <v>-5000</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="1"/>
+        <v>2309.2912353933334</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F51" s="2">
+        <v>-4800</v>
+      </c>
+      <c r="G51" s="3">
+        <f>-($F$40-F51)/$D$3</f>
+        <v>2575.0324592590796</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F52" s="2">
+        <v>-4218</v>
+      </c>
+      <c r="G52" s="3">
+        <f>-($F$40-F52)/$D$3</f>
+        <v>3348.3394207084007</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F53" s="2">
+        <v>-4034</v>
+      </c>
+      <c r="G53" s="3">
+        <f>-($F$40-F53)/$D$3</f>
+        <v>3592.8213466648872</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F54" s="2">
+        <v>-4006</v>
+      </c>
+      <c r="G54" s="3">
+        <f>-($F$40-F54)/$D$3</f>
+        <v>3630.0251180060914</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F55" s="2">
+        <v>-2800</v>
+      </c>
+      <c r="G55" s="3">
+        <f>-($F$40-F55)/$D$3</f>
+        <v>5232.4446979165405</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F56" s="2">
+        <v>-2000</v>
+      </c>
+      <c r="G56" s="3">
+        <f>-($F$40-F56)/$D$3</f>
+        <v>6295.4095933795252</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F57" s="2">
+        <v>-1200</v>
+      </c>
+      <c r="G57" s="3">
+        <f>-($F$40-F57)/$D$3</f>
+        <v>7358.374488842509</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F58" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="G58" s="3">
+        <f>-($F$40-F58)/$D$3</f>
+        <v>7624.1157127082552</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F59" s="2">
+        <v>-282</v>
+      </c>
+      <c r="G59" s="3">
+        <f>-($F$40-F59)/$D$3</f>
+        <v>8578.1267063862833</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F60" s="2">
+        <v>-187</v>
+      </c>
+      <c r="G60" s="3">
+        <f>-($F$40-F60)/$D$3</f>
+        <v>8704.3537877225135</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <f>-($F$40-F61)/$D$3</f>
+        <v>8952.8218320369851</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F62" s="2">
+        <v>50</v>
+      </c>
+      <c r="G62" s="3">
+        <f>-($F$40-F62)/$D$3</f>
+        <v>9019.2571380034224</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F63" s="2">
+        <v>60</v>
+      </c>
+      <c r="G63" s="3">
+        <f>-($F$40-F63)/$D$3</f>
+        <v>9032.5441991967091</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F64" s="2">
+        <v>250</v>
+      </c>
+      <c r="G64" s="3">
+        <f>-($F$40-F64)/$D$3</f>
+        <v>9284.9983618691676</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F65" s="2">
+        <v>461</v>
+      </c>
+      <c r="G65" s="3">
+        <f>-($F$40-F65)/$D$3</f>
+        <v>9565.355353047531</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F66" s="2">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
+        <f>-($F$40-F66)/$D$3</f>
+        <v>9617.1748917013501</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F67" s="2">
+        <v>560</v>
+      </c>
+      <c r="G67" s="3">
+        <f>-($F$40-F67)/$D$3</f>
+        <v>9696.8972588610741</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F68" s="2">
+        <v>589</v>
+      </c>
+      <c r="G68" s="3">
+        <f>-($F$40-F68)/$D$3</f>
+        <v>9735.4297363216083</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F69" s="2">
+        <v>604</v>
+      </c>
+      <c r="G69" s="3">
+        <f>-($F$40-F69)/$D$3</f>
+        <v>9755.3603281115393</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F70" s="2">
+        <v>615</v>
+      </c>
+      <c r="G70" s="3">
+        <f>-($F$40-F70)/$D$3</f>
+        <v>9769.9760954241556</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F71" s="2">
+        <v>620</v>
+      </c>
+      <c r="G71" s="3">
+        <f>-($F$40-F71)/$D$3</f>
+        <v>9776.619626020798</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F72" s="2">
+        <v>750</v>
+      </c>
+      <c r="G72" s="3">
+        <f>-($F$40-F72)/$D$3</f>
+        <v>9949.3514215335344</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F73" s="2">
+        <v>753</v>
+      </c>
+      <c r="G73" s="3">
+        <f>-($F$40-F73)/$D$3</f>
+        <v>9953.3375398915196</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F74" s="2">
+        <v>800</v>
+      </c>
+      <c r="G74" s="3">
+        <f>-($F$40-F74)/$D$3</f>
+        <v>10015.78672749997</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F75" s="2">
+        <v>826</v>
+      </c>
+      <c r="G75" s="3">
+        <f>-($F$40-F75)/$D$3</f>
+        <v>10050.333086602517</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F76" s="2">
+        <v>979</v>
+      </c>
+      <c r="G76" s="3">
+        <f>-($F$40-F76)/$D$3</f>
+        <v>10253.625122859812</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F77" s="2">
+        <v>986</v>
+      </c>
+      <c r="G77" s="3">
+        <f>-($F$40-F77)/$D$3</f>
+        <v>10262.926065695114</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F78" s="2">
+        <v>1042</v>
+      </c>
+      <c r="G78" s="3">
+        <f>-($F$40-F78)/$D$3</f>
+        <v>10337.333608377523</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F79" s="2">
+        <v>1082</v>
+      </c>
+      <c r="G79" s="3">
+        <f>-($F$40-F79)/$D$3</f>
+        <v>10390.481853150672</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F80" s="2">
+        <v>1084</v>
+      </c>
+      <c r="G80" s="3">
+        <f>-($F$40-F80)/$D$3</f>
+        <v>10393.139265389329</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F81" s="2">
+        <v>1101</v>
+      </c>
+      <c r="G81" s="3">
+        <f>-($F$40-F81)/$D$3</f>
+        <v>10415.727269417917</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F82" s="2">
+        <v>1105</v>
+      </c>
+      <c r="G82" s="3">
+        <f>-($F$40-F82)/$D$3</f>
+        <v>10421.042093895232</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F83" s="2">
+        <v>1150</v>
+      </c>
+      <c r="G83" s="3">
+        <f>-($F$40-F83)/$D$3</f>
+        <v>10480.833869265025</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>